--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2337503.503215946</v>
+        <v>2411021.303847761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903708</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768291</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6676914.082991101</v>
+        <v>6880985.954282006</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>264.7856695359756</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -674,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>250.5033668008612</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,22 +819,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>22.16731931190212</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -883,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>309.8763825356378</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>154.1045359822753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>146.8886911789357</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>106.9706214097032</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>23.80406948072579</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>58.90593729039612</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1199,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.24458363092484</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1351,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>220.9263373332096</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1381,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>228.8258688538634</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>359.9161488279614</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>213.1760542313935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1610,13 +1612,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>265.7345771113586</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>346.5157741617745</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>51.58519216684986</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1813,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>142.4842142093541</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2020,7 +2022,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>10.79395791154377</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>261.952250356226</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2138,13 +2140,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>146.5980694263808</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2251,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>70.80681896293774</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>403.0357706953219</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2330,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>92.8713183380883</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>143.4596394439736</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>101.6409518870421</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2798,10 +2800,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>222.2025742562865</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2846,7 +2848,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>91.83504102362517</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3038,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>31.99018014062471</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3193,16 +3195,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>140.1955519265322</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>64.76364486138495</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3278,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>362.5761659788956</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>262.2425928248799</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.833227025729</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.3129341146937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3679,7 +3681,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>85.05410598379264</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.88126300749902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330.1005773784364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>261.9522503562252</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>16.89129460975111</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.0628869872857</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3989,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>151.9700661365611</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>354.8624710341901</v>
       </c>
     </row>
     <row r="45">
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672385</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.2842014970884</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C2" t="n">
-        <v>327.2000148507626</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D2" t="n">
-        <v>326.7764889842272</v>
+        <v>728.1635060160443</v>
       </c>
       <c r="E2" t="n">
-        <v>316.476677541528</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F2" t="n">
-        <v>299.4866695356196</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>294.7987894688558</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>339.4649771211738</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.4649771211738</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.22713412386</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.8584580678856</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4519,19 +4521,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.593134765086</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1142.707389704608</v>
+        <v>1548.772750622268</v>
       </c>
       <c r="W4" t="n">
-        <v>863.6377252134819</v>
+        <v>1269.703086131142</v>
       </c>
       <c r="X4" t="n">
-        <v>625.2938630731653</v>
+        <v>1031.359223990826</v>
       </c>
       <c r="Y4" t="n">
-        <v>400.5581644619299</v>
+        <v>1031.359223990826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.591565793852</v>
+        <v>1681.430108024969</v>
       </c>
       <c r="C5" t="n">
-        <v>875.4669751071217</v>
+        <v>1675.345921378643</v>
       </c>
       <c r="D5" t="n">
-        <v>875.0434492405863</v>
+        <v>1270.881991471704</v>
       </c>
       <c r="E5" t="n">
-        <v>864.743637797887</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>443.7132257515746</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4571,22 +4573,22 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4598,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1447.433488874781</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.772341417937</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4632,40 +4634,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922354</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.3841994575341</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N6" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.9953472308603</v>
+        <v>641.31505061373</v>
       </c>
       <c r="C7" t="n">
-        <v>506.9953472308603</v>
+        <v>470.2216781754465</v>
       </c>
       <c r="D7" t="n">
-        <v>506.9953472308603</v>
+        <v>310.7270334983565</v>
       </c>
       <c r="E7" t="n">
-        <v>358.622931898602</v>
+        <v>149.816218366676</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>786.0650117219859</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>506.9953472308603</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X7" t="n">
-        <v>506.9953472308603</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.9953472308603</v>
+        <v>829.0147570077744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>543.7918484562147</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>537.7076618098888</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>133.2437319029493</v>
+        <v>926.3505956994404</v>
       </c>
       <c r="E8" t="n">
-        <v>122.9439204602501</v>
+        <v>512.0103802163371</v>
       </c>
       <c r="F8" t="n">
-        <v>105.9539124543417</v>
+        <v>487.9658655893414</v>
       </c>
       <c r="G8" t="n">
-        <v>101.2660323875779</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0078249962696</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>176.0078249962696</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>692.8507596625949</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>1209.69369432892</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.656425951752</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>954.0130281207041</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>954.0130281207041</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784821</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="M9" t="n">
-        <v>1541.851827451147</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="N9" t="n">
-        <v>2058.694762117472</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.42628121639481</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>83.42628121639481</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>83.42628121639481</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>83.42628121639481</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>83.42628121639481</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>83.42628121639481</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.817095773278</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>774.9313507128002</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>495.8616862216745</v>
+        <v>324.3615876076854</v>
       </c>
       <c r="X10" t="n">
-        <v>495.8616862216745</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="Y10" t="n">
-        <v>271.1259876104392</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2134.575505297576</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C11" t="n">
-        <v>1724.450914610847</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D11" t="n">
-        <v>1319.986984703907</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E11" t="n">
-        <v>905.6467692208039</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F11" t="n">
-        <v>484.6163571744915</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>379.5250915873173</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1092.116491399555</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1868.435082391309</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2621.616099029927</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3659.122578160285</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3659.122578160285</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V11" t="n">
-        <v>3309.285023496765</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W11" t="n">
-        <v>2945.733358013976</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X11" t="n">
-        <v>2945.733358013976</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y11" t="n">
-        <v>2544.796684962066</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>75.88807306732367</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>918.8651537618904</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N12" t="n">
-        <v>918.8651537618904</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.671376429294</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1165.22192336846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>994.1285509301767</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>834.6339062530867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>673.7230911214062</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>509.0919652319975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>341.8415741575409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1605.286969688174</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U13" t="n">
-        <v>1605.286969688174</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V13" t="n">
-        <v>1605.286969688174</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.286969688174</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X13" t="n">
-        <v>1389.957621979695</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.22192336846</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2063.561026748006</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1653.436436061276</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1248.972506154337</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E14" t="n">
-        <v>834.6322906712335</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F14" t="n">
-        <v>484.6163571744915</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G14" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H14" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.125143816904</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.716543629142</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2357.035134620896</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>3110.216151259514</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3753.847007676619</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3659.122578160285</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3659.122578160285</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3659.122578160285</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3275.362277295453</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2874.718879464406</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2473.782206412496</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>75.88807306732367</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>918.8651537618904</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N15" t="n">
-        <v>1418.420178371929</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1165.22192336846</v>
+        <v>411.3034534948298</v>
       </c>
       <c r="C16" t="n">
-        <v>994.1285509301767</v>
+        <v>411.3034534948298</v>
       </c>
       <c r="D16" t="n">
-        <v>834.6339062530867</v>
+        <v>411.3034534948298</v>
       </c>
       <c r="E16" t="n">
-        <v>673.7230911214062</v>
+        <v>411.3034534948298</v>
       </c>
       <c r="F16" t="n">
-        <v>509.0919652319975</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1605.286969688174</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1605.286969688174</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>1605.286969688174</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V16" t="n">
-        <v>1605.286969688174</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W16" t="n">
-        <v>1605.286969688174</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="X16" t="n">
-        <v>1577.65732837374</v>
+        <v>636.0391521060651</v>
       </c>
       <c r="Y16" t="n">
-        <v>1352.921629762505</v>
+        <v>411.3034534948298</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5552,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1392.027034650488</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1789.888428857139</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.5669336770293</v>
+        <v>862.1720881829889</v>
       </c>
       <c r="C19" t="n">
-        <v>879.5669336770293</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="D19" t="n">
-        <v>735.6434849807119</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E19" t="n">
-        <v>574.7326698490315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>410.1015439596227</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1611.739606522035</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1611.739606522035</v>
       </c>
       <c r="T19" t="n">
-        <v>1436.250826191383</v>
+        <v>1611.739606522035</v>
       </c>
       <c r="U19" t="n">
-        <v>1153.452678737507</v>
+        <v>1328.941459068159</v>
       </c>
       <c r="V19" t="n">
-        <v>879.5669336770293</v>
+        <v>1328.941459068159</v>
       </c>
       <c r="W19" t="n">
-        <v>879.5669336770293</v>
+        <v>1049.871794577033</v>
       </c>
       <c r="X19" t="n">
-        <v>879.5669336770293</v>
+        <v>1049.871794577033</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.5669336770293</v>
+        <v>1049.871794577033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2502.881125286859</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>2092.756534600129</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.29260469319</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1273.952389210086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>852.921977163774</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5786,16 +5788,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.102304951348</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1159.563033559921</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5941,19 +5943,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>994.4366624406164</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.298732171156</v>
+        <v>756.0928003002998</v>
       </c>
       <c r="Y22" t="n">
-        <v>1159.563033559921</v>
+        <v>756.0928003002998</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>2945.549711724955</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>3788.526792419522</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3300.036378984746</v>
+        <v>358.1464825916217</v>
       </c>
       <c r="C25" t="n">
-        <v>3300.036378984746</v>
+        <v>187.0531101533383</v>
       </c>
       <c r="D25" t="n">
-        <v>3300.036378984746</v>
+        <v>187.0531101533383</v>
       </c>
       <c r="E25" t="n">
-        <v>3300.036378984746</v>
+        <v>187.0531101533383</v>
       </c>
       <c r="F25" t="n">
-        <v>3300.036378984746</v>
+        <v>187.0531101533383</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>187.0531101533383</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>187.0531101533383</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4091.335650676667</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3817.449905616189</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W25" t="n">
-        <v>3538.380241125063</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X25" t="n">
-        <v>3300.036378984746</v>
+        <v>582.8821812028571</v>
       </c>
       <c r="Y25" t="n">
-        <v>3300.036378984746</v>
+        <v>358.1464825916217</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.930282068041</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6412,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2359.298219196301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.173628509571</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1544.709698602632</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F29" t="n">
         <v>899.2322418529996</v>
@@ -6494,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3170.456071912701</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2769.519398860791</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3881.678613747384</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>3710.5852413091</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3551.09059663201</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3390.17978150033</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3225.548655610921</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>4294.114018752663</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>4294.114018752663</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>4294.114018752663</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>4294.114018752663</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>4069.378320141428</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6788,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>93.2436976906228</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>524.2254458227151</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4061.209023079746</v>
+        <v>3905.261991942426</v>
       </c>
       <c r="C34" t="n">
-        <v>3890.115650641462</v>
+        <v>3734.168619504142</v>
       </c>
       <c r="D34" t="n">
-        <v>3730.621005964372</v>
+        <v>3574.673974827052</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>3413.763159695372</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H34" t="n">
         <v>3249.132033805963</v>
@@ -6880,28 +6882,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>4248.90872947379</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W34" t="n">
-        <v>4248.90872947379</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X34" t="n">
-        <v>4248.90872947379</v>
+        <v>4317.697396947706</v>
       </c>
       <c r="Y34" t="n">
-        <v>4248.90872947379</v>
+        <v>4092.96169833647</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D35" t="n">
-        <v>1692.113136769081</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E35" t="n">
-        <v>1277.772921285978</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F35" t="n">
-        <v>856.7425092396657</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6980,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.6405918886512</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.6405918886512</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>200.1459472115612</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>200.1459472115612</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>200.1459472115612</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>200.1459472115612</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>200.1459472115612</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1015.022989509699</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>741.1372444492208</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>462.0675799580952</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>462.0675799580952</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y37" t="n">
-        <v>280.9434040846672</v>
+        <v>547.3402982826956</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M39" t="n">
-        <v>549.0499539559215</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N39" t="n">
-        <v>1085.931338311245</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.888428857139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>1152.144740463553</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>981.0513680252693</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>821.5567233481793</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>660.6459082164988</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>496.0147823270901</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>328.7643912526335</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>179.1569360580901</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7363,19 +7365,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X40" t="n">
-        <v>1384.298732171156</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>1339.844446857597</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2445.484002669858</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C41" t="n">
-        <v>2035.359411983129</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D41" t="n">
-        <v>1630.895482076189</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.555266593086</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5248545467734</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>587.5207827111769</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1300.112182523415</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2076.430773515169</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2829.611790153787</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3473.242646570892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3179.855602366654</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3179.855602366654</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3179.855602366654</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y41" t="n">
-        <v>2778.918929314744</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>736.976244986612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1579.953325681179</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N42" t="n">
-        <v>1579.953325681179</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>356.8652448524062</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="C43" t="n">
-        <v>356.8652448524062</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="D43" t="n">
-        <v>356.8652448524062</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="E43" t="n">
-        <v>356.8652448524062</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F43" t="n">
-        <v>192.2341189629975</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G43" t="n">
-        <v>192.2341189629975</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1372.900215155562</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1372.900215155562</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V43" t="n">
-        <v>1099.014470095084</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W43" t="n">
-        <v>819.9448056039582</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X43" t="n">
-        <v>581.6009434636416</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y43" t="n">
-        <v>356.8652448524062</v>
+        <v>591.7945835962548</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2036.755718562691</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.631127875961</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D44" t="n">
-        <v>1222.167197969021</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>807.8269824859181</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>386.7965704396057</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>386.7965704396057</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3473.242646570892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3659.122578160285</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3402.062086419795</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3248.556969110137</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3248.556969110137</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2847.91357127909</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2446.97689822718</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>75.88807306732367</v>
+        <v>946.9113481625727</v>
       </c>
       <c r="M45" t="n">
-        <v>544.7620862603114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N45" t="n">
-        <v>1418.420178371929</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.377268917824</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1365.738230664876</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U46" t="n">
-        <v>1082.940083211</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V46" t="n">
-        <v>809.054338150522</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W46" t="n">
-        <v>529.9846736593963</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X46" t="n">
-        <v>291.6408115190797</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -7994,7 +7996,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>67.67798733913797</v>
+        <v>232.5803491573229</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>339.7024893595824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>363.7739143332572</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>560.9496989519245</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>224.7351163062146</v>
+        <v>275.0827150970472</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>394.1192645454828</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>424.7983178153489</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>139.0874473017417</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>114.0659762175034</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>706.0405928054578</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8927,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.6228535942535</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8942,10 +8944,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9009,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>148.6536994294856</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7944283533852</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9252,16 +9254,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0735895620846</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9483,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>359.3504929206866</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>389.3004056737939</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
@@ -10194,16 +10196,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10434,19 +10436,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>488.5284925170755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>595.4978220354909</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>605.93710648519</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11075,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>605.654451966308</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11309,16 +11311,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>716.5272149711554</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>457.9947199791836</v>
       </c>
       <c r="M45" t="n">
-        <v>531.1743980747686</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>25.66401796922159</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>20.00654902822174</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>22.78436928751995</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>70.30433376407478</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>111.3996224636648</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,22 +23703,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.41548402096493</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>73.62603322981057</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>45.8471620423332</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>22.78436928751989</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>205.4721488832766</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3.083197172522659</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>22.3112670986288</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>136.5105265353635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>308.5558614412301</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24686,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>187.9942390719857</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>73.74284614008684</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -24892,7 +24894,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24901,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>187.994239071985</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25132,16 +25134,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>130.951335683341</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>171.1967786575285</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>42.06483528720048</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25315,7 +25317,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25330,7 +25332,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>9.34935841098806</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25378,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.17540751042924</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>30.12847945292447</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25612,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6070786176239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>76.01839048940815</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>142.4104123706126</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>7.090364645779232</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>194.3691129803231</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>42.06483528720071</v>
       </c>
     </row>
     <row r="45">
@@ -26041,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>170.5352159497217</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884461</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>638266.8185471342</v>
+        <v>646984.1415988123</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512701.9846660531</v>
+        <v>579786.9599305167</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512701.984666053</v>
+        <v>579786.9599305168</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>579786.9599305165</v>
+        <v>579786.9599305168</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>579786.9599305167</v>
+        <v>579786.9599305168</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>579786.9599305165</v>
+        <v>579786.9599305168</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>579786.9599305165</v>
+        <v>579786.9599305167</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579786.9599305165</v>
+        <v>579786.9599305167</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579786.9599305167</v>
+        <v>579786.9599305168</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>579786.9599305168</v>
+        <v>579786.9599305167</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>579786.9599305167</v>
+        <v>579786.9599305165</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512701.9846660533</v>
+        <v>579786.9599305165</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512701.9846660532</v>
+        <v>579786.9599305168</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521223.6577038622</v>
+        <v>521223.6577038623</v>
       </c>
       <c r="C2" t="n">
-        <v>521223.657703862</v>
+        <v>521223.6577038624</v>
       </c>
       <c r="D2" t="n">
-        <v>521223.6577038622</v>
+        <v>521223.6577038624</v>
       </c>
       <c r="E2" t="n">
-        <v>409824.3164578233</v>
+        <v>463437.8680561499</v>
       </c>
       <c r="F2" t="n">
-        <v>409824.3164578233</v>
+        <v>463437.8680561502</v>
       </c>
       <c r="G2" t="n">
+        <v>463437.8680561502</v>
+      </c>
+      <c r="H2" t="n">
         <v>463437.86805615</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>463437.8680561501</v>
+      </c>
+      <c r="J2" t="n">
         <v>463437.8680561499</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>463437.86805615</v>
+      </c>
+      <c r="L2" t="n">
         <v>463437.8680561499</v>
-      </c>
-      <c r="J2" t="n">
-        <v>463437.8680561503</v>
-      </c>
-      <c r="K2" t="n">
-        <v>463437.8680561502</v>
-      </c>
-      <c r="L2" t="n">
-        <v>463437.8680561502</v>
       </c>
       <c r="M2" t="n">
         <v>463437.86805615</v>
       </c>
       <c r="N2" t="n">
-        <v>463437.8680561501</v>
+        <v>463437.86805615</v>
       </c>
       <c r="O2" t="n">
-        <v>409824.3164578231</v>
+        <v>463437.86805615</v>
       </c>
       <c r="P2" t="n">
-        <v>409824.3164578232</v>
+        <v>463437.86805615</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>174432.0962319951</v>
+        <v>85879.99254746172</v>
       </c>
       <c r="E4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26451,13 +26453,13 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="P4" t="n">
         <v>30192.61954398331</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26671.17032028951</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26671.1703202895</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106466.9865002554</v>
+        <v>106466.9865002556</v>
       </c>
       <c r="C6" t="n">
-        <v>281422.4963933693</v>
+        <v>281422.4963933697</v>
       </c>
       <c r="D6" t="n">
-        <v>281422.4963933695</v>
+        <v>164515.124891132</v>
       </c>
       <c r="E6" t="n">
-        <v>198123.5438166172</v>
+        <v>335411.0840863591</v>
       </c>
       <c r="F6" t="n">
-        <v>325478.2106063678</v>
+        <v>362380.0382672935</v>
       </c>
       <c r="G6" t="n">
-        <v>302918.5835813316</v>
+        <v>362380.0382672935</v>
       </c>
       <c r="H6" t="n">
-        <v>362380.0382672932</v>
+        <v>362380.0382672934</v>
       </c>
       <c r="I6" t="n">
-        <v>362380.0382672932</v>
+        <v>362380.0382672935</v>
       </c>
       <c r="J6" t="n">
-        <v>225785.2374613986</v>
+        <v>225785.2374613983</v>
       </c>
       <c r="K6" t="n">
-        <v>362380.0382672935</v>
+        <v>362380.0382672934</v>
       </c>
       <c r="L6" t="n">
-        <v>362380.0382672935</v>
+        <v>222380.7274025406</v>
       </c>
       <c r="M6" t="n">
-        <v>256085.2262494186</v>
+        <v>339870.773493246</v>
       </c>
       <c r="N6" t="n">
-        <v>362380.0382672935</v>
+        <v>362380.0382672934</v>
       </c>
       <c r="O6" t="n">
-        <v>325478.2106063676</v>
+        <v>362380.0382672934</v>
       </c>
       <c r="P6" t="n">
-        <v>325478.2106063677</v>
+        <v>362380.0382672934</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>145.4111437922966</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>57.29604559769797</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27591,10 +27593,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>126.9450269688244</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>248.9795682979711</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>100.3204307926345</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>242.8227703391155</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>12.41301580142806</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081142</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>248.893475108163</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28026,7 +28028,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>106.8667970116731</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>55.35263051300475</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34696,17 +34698,17 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -34714,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>14.48459394538798</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>306.2096305948398</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>506.6900639491207</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>135.5987266329975</v>
+        <v>185.9463254238301</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>338.0047407346338</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>49.95105762852458</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>56.50169247908597</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>648.2891138054578</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.4864639210364</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35662,10 +35664,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>91.08941569106823</v>
       </c>
       <c r="N15" t="n">
-        <v>504.6010349596353</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>401.8801961683346</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>305.0908579178828</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>435.3350991233255</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>542.304428641741</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>516.800716811973</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37795,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>547.902972966308</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38029,16 +38031,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>623.3374393453723</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>401.8801961683345</v>
       </c>
       <c r="M45" t="n">
-        <v>473.6101143363513</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2411021.303847761</v>
+        <v>2409708.658392182</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029739</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6880985.954282006</v>
+        <v>6880985.954282007</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>264.7856695359756</v>
+        <v>371.1881062918937</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>135.5363988998293</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>22.16731931190212</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>80.02871049750352</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>309.8763825356378</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -913,10 +913,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>106.9706214097032</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1144,10 +1144,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>23.80406948072579</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1192,13 +1192,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>329.8828023806812</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>76.43104772188462</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1350,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>220.9263373332096</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>228.8258688538634</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.77250173713465</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>265.7345771113586</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>51.58519216684986</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.8600882386058</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>49.12308702887178</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>177.9195839254089</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.79395791154377</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>283.7777510779965</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>70.80681896293774</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>403.0357706953219</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.406689650563</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.8713183380883</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>85.25432609134864</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2557,13 +2557,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>317.4519025512418</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2800,10 +2800,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2857,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>351.080144279057</v>
       </c>
     </row>
     <row r="30">
@@ -2961,13 +2961,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>124.9723602094808</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>59.82422708687632</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>308.4960544879107</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>64.76364486138495</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>262.2425928248799</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.833227025729</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>267.38583728833</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3663,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.05410598379264</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>76.43104772188497</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944661</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>261.9522503562252</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16.89129460975111</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>236.1130426057388</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -4033,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.8624710341901</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>114.3017476756748</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>65.42520756919177</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.752026609714</v>
+        <v>848.9285713584625</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.627435922984</v>
+        <v>842.8443847121366</v>
       </c>
       <c r="D2" t="n">
-        <v>728.1635060160443</v>
+        <v>438.3804548051971</v>
       </c>
       <c r="E2" t="n">
-        <v>460.703233757483</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>443.7132257515746</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>176.0078249962696</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K2" t="n">
-        <v>692.8507596625949</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L2" t="n">
-        <v>692.8507596625949</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M2" t="n">
-        <v>1209.69369432892</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022952</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227552</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N3" t="n">
-        <v>1708.850297433489</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>843.6595175967814</v>
+        <v>373.7692731995661</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6595175967814</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="D4" t="n">
-        <v>684.1648729196913</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1434.258528816281</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1434.258528816281</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1151.460381362405</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.772750622268</v>
+        <v>877.5746363019271</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.703086131142</v>
+        <v>598.5049718108014</v>
       </c>
       <c r="X4" t="n">
-        <v>1031.359223990826</v>
+        <v>598.5049718108014</v>
       </c>
       <c r="Y4" t="n">
-        <v>1031.359223990826</v>
+        <v>373.7692731995661</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.430108024969</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>1675.345921378643</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D5" t="n">
-        <v>1270.881991471704</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4579,16 +4579,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4609,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.31505061373</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>470.2216781754465</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7270334983565</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>149.816218366676</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4764,13 +4764,13 @@
         <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.094317759326</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>1053.75045561901</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.0147570077744</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.93911629311</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.81452560638</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>926.3505956994404</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>512.0103802163371</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>487.9658655893414</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
         <v>483.2779855225776</v>
@@ -4804,28 +4804,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>524.2900591047148</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.881458916953</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908707</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
@@ -4840,16 +4840,16 @@
         <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705388</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840557</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009509</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957599</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326674</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>1202.912153651956</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>1202.912153651956</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="N9" t="n">
-        <v>1570.801028829339</v>
+        <v>1802.652898273553</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
         <v>2132.506921317869</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1538.213543581265</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1298.664804557967</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1015.866657104091</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058769</v>
+        <v>1015.866657104091</v>
       </c>
       <c r="W10" t="n">
-        <v>324.3615876076854</v>
+        <v>736.7969926129651</v>
       </c>
       <c r="X10" t="n">
-        <v>86.01772546736876</v>
+        <v>498.4531304726485</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736876</v>
+        <v>273.7174318614132</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2128.160977929772</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1718.036387243042</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.572457336103</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>899.2322418529996</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4073.56008400557</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3723.722529342051</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3339.962228477219</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2939.318830646172</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2538.382157594262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.074801429505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N12" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="C13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>844.5103911440685</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.3034534948298</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="C16" t="n">
-        <v>411.3034534948298</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="D16" t="n">
-        <v>411.3034534948298</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E16" t="n">
-        <v>411.3034534948298</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F16" t="n">
-        <v>359.19719878084</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
         <v>359.19719878084</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1436.250826191383</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1153.452678737507</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>1153.452678737507</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="W16" t="n">
-        <v>874.3830142463817</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="X16" t="n">
-        <v>636.0391521060651</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="Y16" t="n">
-        <v>411.3034534948298</v>
+        <v>687.3584049869771</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2512.458907120301</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.334316433571</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.870386526632</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.530171043528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>862.4997589972158</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>453.771474890048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>142.862977517766</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4347.187057885433</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4090.126566144943</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3740.289011481424</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>862.1720881829889</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1611.739606522035</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1611.739606522035</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1611.739606522035</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>1328.941459068159</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>1328.941459068159</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>1049.871794577033</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>1049.871794577033</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>1049.871794577033</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5788,16 +5788,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>1458.288960155805</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>568.3930939062554</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>568.3930939062554</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>568.3930939062554</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>407.4822787745749</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>994.4366624406164</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>756.0928003002998</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>756.0928003002998</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6010,31 +6010,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G24" t="n">
         <v>184.7395020346666</v>
@@ -6065,19 +6065,19 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J24" t="n">
-        <v>286.056555253256</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K24" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>2139.732893541123</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N24" t="n">
         <v>2139.732893541123</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>358.1464825916217</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="C25" t="n">
-        <v>187.0531101533383</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D25" t="n">
-        <v>187.0531101533383</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E25" t="n">
-        <v>187.0531101533383</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F25" t="n">
-        <v>187.0531101533383</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G25" t="n">
-        <v>187.0531101533383</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H25" t="n">
-        <v>187.0531101533383</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J25" t="n">
         <v>107.3262470958333</v>
@@ -6180,19 +6180,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.295707834299</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W25" t="n">
-        <v>821.2260433431736</v>
+        <v>744.0229648362192</v>
       </c>
       <c r="X25" t="n">
-        <v>582.8821812028571</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y25" t="n">
-        <v>358.1464825916217</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
         <v>899.2322418529996</v>
@@ -6505,10 +6505,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6551,19 +6551,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>701.0885758333507</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>529.9952033950672</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H31" t="n">
         <v>209.5897435862967</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>888.788282227395</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F32" t="n">
-        <v>873.3089913790386</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G32" t="n">
-        <v>464.5807072718708</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>153.6722098995888</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6721,31 +6721,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6776,22 +6776,22 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3905.261991942426</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="C34" t="n">
-        <v>3734.168619504142</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D34" t="n">
-        <v>3574.673974827052</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E34" t="n">
-        <v>3413.763159695372</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>4383.115220040014</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>4317.697396947706</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>4092.96169833647</v>
+        <v>93.24369769062281</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.6405918886512</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>359.6405918886512</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>200.1459472115612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>200.1459472115612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>200.1459472115612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>200.1459472115612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>200.1459472115612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7134,13 +7134,13 @@
         <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>547.3402982826956</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>547.3402982826956</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F38" t="n">
-        <v>501.9719817977906</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>3458.672769375206</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N39" t="n">
-        <v>4332.330861486824</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1152.144740463553</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>981.0513680252693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>821.5567233481793</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>660.6459082164988</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>496.0147823270901</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>328.7643912526335</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.1569360580901</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7362,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1339.844446857597</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.844446857597</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X40" t="n">
-        <v>1339.844446857597</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y40" t="n">
-        <v>1339.844446857597</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K41" t="n">
         <v>885.5886702674165</v>
@@ -7432,31 +7432,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G42" t="n">
         <v>184.7395020346666</v>
@@ -7487,31 +7487,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>562.1177108836107</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>591.7945835962548</v>
+        <v>359.19719878084</v>
       </c>
       <c r="C43" t="n">
-        <v>591.7945835962548</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D43" t="n">
-        <v>591.7945835962548</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E43" t="n">
-        <v>574.7326698490315</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1015439596227</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G43" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J43" t="n">
         <v>107.3262470958333</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1383.093855288175</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>1109.208110227697</v>
+        <v>1101.346424023518</v>
       </c>
       <c r="W43" t="n">
-        <v>830.1384457365714</v>
+        <v>822.2767595323919</v>
       </c>
       <c r="X43" t="n">
-        <v>591.7945835962548</v>
+        <v>583.9328973920753</v>
       </c>
       <c r="Y43" t="n">
-        <v>591.7945835962548</v>
+        <v>359.19719878084</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2144.727460069145</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
         <v>1734.602869382415</v>
@@ -7648,7 +7648,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7663,7 +7663,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P44" t="n">
         <v>4300.467232046283</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y44" t="n">
-        <v>2554.948639733635</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>946.9113481625727</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
         <v>1789.888428857139</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5897435862967</v>
+        <v>700.1988407211867</v>
       </c>
       <c r="C46" t="n">
-        <v>209.5897435862967</v>
+        <v>529.1054682829032</v>
       </c>
       <c r="D46" t="n">
-        <v>209.5897435862967</v>
+        <v>369.6108236058132</v>
       </c>
       <c r="E46" t="n">
-        <v>209.5897435862967</v>
+        <v>208.7000084741327</v>
       </c>
       <c r="F46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>828.6312213896092</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V46" t="n">
-        <v>554.7454763291312</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W46" t="n">
-        <v>275.6758118380055</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X46" t="n">
-        <v>209.5897435862967</v>
+        <v>1112.634245726466</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.5897435862967</v>
+        <v>887.8985471152311</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>208.9223179663055</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>175.2980289959031</v>
       </c>
       <c r="N3" t="n">
-        <v>232.5803491573229</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8227,19 +8227,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>493.8215862770622</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>363.7739143332572</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>237.1384347635734</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>275.0827150970472</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>354.5090417861859</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>424.7983178153489</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629447</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8777,13 +8777,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>114.0659762175034</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>148.6536994294856</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
@@ -9494,16 +9494,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>448.5973834639358</v>
       </c>
       <c r="P21" t="n">
-        <v>359.3504929206866</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
@@ -9725,10 +9725,10 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>801.788435357892</v>
+        <v>114.0659762175034</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
@@ -9956,28 +9956,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>399.3111077937234</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>69.31427828326235</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10904,28 +10904,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>457.9947199791836</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,7 +11393,7 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>25.66401796922159</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>141.609936976766</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23469,7 +23469,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.3996224636648</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>131.2867993712675</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36.36515802722579</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>42.06483528720082</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.62603322981057</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>62.56142803888758</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24135,16 +24135,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>205.4721488832766</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.083197172522659</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522006</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24384,7 +24384,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>22.3112670986288</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>88.57144222862075</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24688,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>45.84716204233382</v>
       </c>
     </row>
     <row r="30">
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24903,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>97.51598141564216</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>25.66401796922125</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>37.84312462897338</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25095,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>171.1967786575285</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25332,7 +25332,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>9.34935841098806</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>30.12847945292447</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>194.7158398879883</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>88.57144222861891</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>142.4104123706126</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>35.03384500413446</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.36515802722613</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>42.06483528720071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>48.68306695483986</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5352159497217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579786.9599305168</v>
+        <v>579786.9599305167</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>579786.9599305168</v>
+        <v>579786.9599305169</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>579786.9599305168</v>
+        <v>579786.9599305169</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579786.9599305168</v>
+        <v>579786.9599305169</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>579786.9599305167</v>
+        <v>579786.9599305168</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>579786.9599305165</v>
+        <v>579786.9599305168</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579786.9599305165</v>
+        <v>579786.9599305169</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579786.9599305168</v>
+        <v>579786.9599305165</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521223.6577038623</v>
+        <v>521223.6577038622</v>
       </c>
       <c r="C2" t="n">
         <v>521223.6577038624</v>
       </c>
       <c r="D2" t="n">
-        <v>521223.6577038624</v>
+        <v>521223.6577038622</v>
       </c>
       <c r="E2" t="n">
-        <v>463437.8680561499</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="F2" t="n">
         <v>463437.8680561502</v>
@@ -26334,28 +26334,28 @@
         <v>463437.86805615</v>
       </c>
       <c r="I2" t="n">
+        <v>463437.8680561503</v>
+      </c>
+      <c r="J2" t="n">
         <v>463437.8680561501</v>
       </c>
-      <c r="J2" t="n">
-        <v>463437.8680561499</v>
-      </c>
       <c r="K2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561502</v>
       </c>
       <c r="L2" t="n">
-        <v>463437.8680561499</v>
+        <v>463437.8680561502</v>
       </c>
       <c r="M2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561502</v>
       </c>
       <c r="N2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561501</v>
       </c>
       <c r="O2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561502</v>
       </c>
       <c r="P2" t="n">
-        <v>463437.86805615</v>
+        <v>463437.8680561503</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100685</v>
+        <v>171827.4689100684</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093424</v>
+        <v>26968.95418093431</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>85879.99254746172</v>
+        <v>85879.99254746169</v>
       </c>
       <c r="E4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26438,7 +26438,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="J4" t="n">
         <v>30192.61954398331</v>
@@ -26453,10 +26453,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
         <v>30192.61954398331</v>
@@ -26490,7 +26490,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="J5" t="n">
         <v>70865.21024487332</v>
@@ -26499,7 +26499,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="M5" t="n">
         <v>70865.21024487332</v>
@@ -26508,7 +26508,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="P5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106466.9865002556</v>
+        <v>106466.9865002554</v>
       </c>
       <c r="C6" t="n">
         <v>281422.4963933697</v>
       </c>
       <c r="D6" t="n">
-        <v>164515.124891132</v>
+        <v>164515.1248911318</v>
       </c>
       <c r="E6" t="n">
-        <v>335411.0840863591</v>
+        <v>335230.5034937101</v>
       </c>
       <c r="F6" t="n">
-        <v>362380.0382672935</v>
+        <v>362199.4576746444</v>
       </c>
       <c r="G6" t="n">
-        <v>362380.0382672935</v>
+        <v>362199.4576746444</v>
       </c>
       <c r="H6" t="n">
-        <v>362380.0382672934</v>
+        <v>362199.4576746443</v>
       </c>
       <c r="I6" t="n">
-        <v>362380.0382672935</v>
+        <v>362199.4576746445</v>
       </c>
       <c r="J6" t="n">
-        <v>225785.2374613983</v>
+        <v>225604.6568687494</v>
       </c>
       <c r="K6" t="n">
-        <v>362380.0382672934</v>
+        <v>362199.4576746445</v>
       </c>
       <c r="L6" t="n">
-        <v>222380.7274025406</v>
+        <v>222200.1468098917</v>
       </c>
       <c r="M6" t="n">
-        <v>339870.773493246</v>
+        <v>339690.192900597</v>
       </c>
       <c r="N6" t="n">
-        <v>362380.0382672934</v>
+        <v>362199.4576746444</v>
       </c>
       <c r="O6" t="n">
-        <v>362380.0382672934</v>
+        <v>362199.4576746444</v>
       </c>
       <c r="P6" t="n">
-        <v>362380.0382672934</v>
+        <v>362199.4576746445</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720839</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067549</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720839</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>145.4111437922966</v>
+        <v>39.00870703637855</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27587,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>48.99145153905954</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>248.9795682979711</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>325.994634282359</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100.3204307926345</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>56.01419322081142</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.0160384451235</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>50.03989547550191</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.0968027170042</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>55.35263051300475</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>135.5987266329975</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>117.7337452574857</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N3" t="n">
-        <v>179.3869557635729</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>400.9092955204429</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>306.2096305948398</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>179.3869557635734</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>185.9463254238301</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>264.4752373870339</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>371.6049244215989</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>333.1858818629447</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35497,13 +35497,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>56.50169247908597</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>91.08941569106823</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>667.7658302215033</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="P21" t="n">
-        <v>305.0908579178828</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
@@ -36445,10 +36445,10 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>744.2241516194746</v>
+        <v>56.50169247908597</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>341.746824055306</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>13.19975447241331</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>401.8801961683345</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
